--- a/users.xlsx
+++ b/users.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwilchek\Documents\GitHub\LeketGo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roey\לימודים אוניברסיטת תל אביב\סמסטר אביב תשעט 2019\סדנה גוגל\חומר שלנו\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9678181E-691F-4976-9DF0-4B52C0561B2B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Users" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>address</t>
   </si>
@@ -99,39 +100,18 @@
     <t>שמש</t>
   </si>
   <si>
-    <t>0524341342</t>
-  </si>
-  <si>
     <t>312345678</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Gilka1b@gmail.com</t>
-  </si>
-  <si>
-    <t>אמיר</t>
-  </si>
-  <si>
-    <t>רובינשטיין</t>
-  </si>
-  <si>
-    <t>050-4561238</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
     <t>מקום כלשהוא 1</t>
   </si>
   <si>
     <t>תל אביב</t>
   </si>
   <si>
-    <t>בן 18!</t>
-  </si>
-  <si>
     <t>alonkag@gmail.com</t>
   </si>
   <si>
@@ -141,9 +121,6 @@
     <t>קגנו</t>
   </si>
   <si>
-    <t>0526748332</t>
-  </si>
-  <si>
     <t>300298111</t>
   </si>
   <si>
@@ -159,27 +136,15 @@
     <t>קבילו</t>
   </si>
   <si>
-    <t>0549998456</t>
-  </si>
-  <si>
     <t>123456789</t>
   </si>
   <si>
     <t>baradmin@gmail.com</t>
   </si>
   <si>
-    <t>052-3668566</t>
-  </si>
-  <si>
     <t>003476551</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>alona@gmail.com</t>
   </si>
   <si>
@@ -210,15 +175,9 @@
     <t>201210820</t>
   </si>
   <si>
-    <t>שד' נורדאו 101000100110</t>
-  </si>
-  <si>
     <t>תל אביב - יפו</t>
   </si>
   <si>
-    <t>מלך!!!</t>
-  </si>
-  <si>
     <t>matanwilchek@gmail.com</t>
   </si>
   <si>
@@ -228,12 +187,6 @@
     <t>302137450</t>
   </si>
   <si>
-    <t>יהושע בן נון 87</t>
-  </si>
-  <si>
-    <t>אחלה מצגת אחי</t>
-  </si>
-  <si>
     <t>roey383@hotmail.com</t>
   </si>
   <si>
@@ -243,9 +196,6 @@
     <t>רביץ</t>
   </si>
   <si>
-    <t>0526428030</t>
-  </si>
-  <si>
     <t>האילנות 11</t>
   </si>
   <si>
@@ -261,9 +211,6 @@
     <t>פרץ</t>
   </si>
   <si>
-    <t>0546779829</t>
-  </si>
-  <si>
     <t>023892656</t>
   </si>
   <si>
@@ -291,34 +238,49 @@
     <t>true</t>
   </si>
   <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>יונתן</t>
-  </si>
-  <si>
-    <t>אוריך</t>
-  </si>
-  <si>
-    <t>a@a.com</t>
-  </si>
-  <si>
-    <t>jj</t>
-  </si>
-  <si>
-    <t>יי</t>
-  </si>
-  <si>
-    <t>a1@a.com</t>
+    <t>0545213163</t>
+  </si>
+  <si>
+    <t>0526428031</t>
+  </si>
+  <si>
+    <t>0524341341</t>
+  </si>
+  <si>
+    <t>0549998451</t>
+  </si>
+  <si>
+    <t>0523668569</t>
+  </si>
+  <si>
+    <t>0526748330</t>
+  </si>
+  <si>
+    <t>0546779823</t>
+  </si>
+  <si>
+    <t>יהושע בן נון 13</t>
+  </si>
+  <si>
+    <t>שד' נורדאו 101</t>
+  </si>
+  <si>
+    <t>הגלעד 12</t>
+  </si>
+  <si>
+    <t>רקפת 98</t>
+  </si>
+  <si>
+    <t>מסיים תואר</t>
+  </si>
+  <si>
+    <t>עוד תואר שלם</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -700,24 +662,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.796875" style="1"/>
+    <col min="10" max="11" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -752,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -781,13 +743,13 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -795,13 +757,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -816,21 +778,21 @@
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -839,406 +801,313 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="1">
-        <v>12</v>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="1">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="I9" t="s">
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14">
-        <v>1234567890</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>123456789</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15">
-        <v>1234567890</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>123456789</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1"/>
-    <hyperlink ref="F15" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E13" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E2 A3:B3 D3:E3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>